--- a/data/trans_dic/P17G_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.9626724836570926</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.9797239848200031</v>
+        <v>0.9797239848200032</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.9631780517835336</v>
@@ -697,7 +697,7 @@
         <v>0.9533437814849706</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.9733893464282938</v>
+        <v>0.9733893464282939</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9226350653304684</v>
+        <v>0.9244406040218215</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9171806144052319</v>
+        <v>0.9186199206858717</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.922653522287352</v>
+        <v>0.9262878659258813</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9394795159788453</v>
+        <v>0.9438647657180672</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9287285762101316</v>
+        <v>0.9307527213869216</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.9615987002411409</v>
+        <v>0.9633214192776989</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.9054917149564455</v>
+        <v>0.9071039264226455</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.9448476388008226</v>
+        <v>0.9437441506736983</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.9428843716756541</v>
+        <v>0.9419103661709731</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.9533162908159901</v>
+        <v>0.9522825942152315</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.9292400925178292</v>
+        <v>0.9300229220567617</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.9516289178116285</v>
+        <v>0.9523344422466932</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9924694106866062</v>
+        <v>0.9920859175909064</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9787009260949459</v>
+        <v>0.9780649055312151</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9840838455032139</v>
+        <v>0.9837108710877775</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9961151277987509</v>
+        <v>0.9961918378293498</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9832124807322958</v>
+        <v>0.9832842280601657</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9957801480787813</v>
+        <v>0.9957519559650612</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9702653167310434</v>
+        <v>0.9715945950640347</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9849828526089528</v>
+        <v>0.9836871303235523</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9822422752249141</v>
+        <v>0.980689588581836</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.9856144705524565</v>
+        <v>0.9853615722381956</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.9709632702662007</v>
+        <v>0.9705853689704008</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.9849707247190977</v>
+        <v>0.9852605930323677</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.905163885212661</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.868324514168567</v>
+        <v>0.8683245141685672</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.9309229576014868</v>
@@ -821,7 +821,7 @@
         <v>0.9602298395878395</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.9162327569383537</v>
+        <v>0.9162327569383536</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.9265925455881312</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8715957967534899</v>
+        <v>0.8713386056812282</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8844847958075428</v>
+        <v>0.8918295891526417</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8570108394854199</v>
+        <v>0.8573372494289899</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8027475987915301</v>
+        <v>0.8113264955645801</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8939844480468924</v>
+        <v>0.8932499388818275</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.9296988138949892</v>
+        <v>0.9313195332442118</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.932854155946014</v>
+        <v>0.9341520866001016</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8798827309455123</v>
+        <v>0.8851798055963159</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8993727901720229</v>
+        <v>0.9015023521191983</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.9264116378104029</v>
+        <v>0.9236946159327161</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.914645184993624</v>
+        <v>0.9129374257129023</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.8604995734928039</v>
+        <v>0.8597945131680381</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9568192123126339</v>
+        <v>0.9552865649774019</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9687759084483513</v>
+        <v>0.9674500375261107</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9370391542023866</v>
+        <v>0.94144105394573</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9136026835004738</v>
+        <v>0.9165185526599751</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.957067817480789</v>
+        <v>0.9553414323580509</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9741599562281881</v>
+        <v>0.9757498374955009</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9774843668258612</v>
+        <v>0.9788234579965834</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.942015374413651</v>
+        <v>0.9406753543078886</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9492713675489519</v>
+        <v>0.9493374902979544</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.967247543900416</v>
+        <v>0.9663388640681448</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.9553465359042056</v>
+        <v>0.9537935044248407</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.9201228484379531</v>
+        <v>0.918548850910501</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.9393923771339424</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.8585378066781681</v>
+        <v>0.858537806678168</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.9165741174589628</v>
@@ -957,7 +957,7 @@
         <v>0.9372797680380458</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.872696380555705</v>
+        <v>0.8726963805557051</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.8991898124973795</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8106296636548678</v>
+        <v>0.8082876643624176</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8618352821238525</v>
+        <v>0.8682972263233242</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8922573332545476</v>
+        <v>0.8906123347656197</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7756100443601505</v>
+        <v>0.7848380765582</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8655049262665272</v>
+        <v>0.8709120765146527</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.9344506339993157</v>
+        <v>0.9336353923922538</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8997045866803461</v>
+        <v>0.9040546195323913</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8204608440062481</v>
+        <v>0.8231873319869454</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8579118548438835</v>
+        <v>0.8590312069544923</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.9152738506718471</v>
+        <v>0.9177939302605922</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.9091388539417499</v>
+        <v>0.909424683731255</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.8204876615833202</v>
+        <v>0.8206677663460177</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9234980258787286</v>
+        <v>0.9265738047573374</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9518110883544232</v>
+        <v>0.9498151331391526</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9712059694045742</v>
+        <v>0.9697560794487036</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9110828152781579</v>
+        <v>0.9159388567443336</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9497972351063312</v>
+        <v>0.9487813764031228</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9869812673171744</v>
+        <v>0.986957813295803</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9641673450879492</v>
+        <v>0.9634339849291366</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9094106431269134</v>
+        <v>0.9117251522916653</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9279251664481092</v>
+        <v>0.9292248877660365</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.9649505139949845</v>
+        <v>0.9655818214262475</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.9593704181179973</v>
+        <v>0.9577730242649362</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.8985231978020519</v>
+        <v>0.8987041275587995</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.8588203421214212</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8970363593856971</v>
+        <v>0.8970363593856969</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.9409375743063773</v>
@@ -1105,7 +1105,7 @@
         <v>0.8878242518839636</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.8754407014513946</v>
+        <v>0.8754407014513944</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8162194643507238</v>
+        <v>0.8222675457755563</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8705261382844862</v>
+        <v>0.8709993439199529</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8082866814968113</v>
+        <v>0.8071354391486953</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8469917837251368</v>
+        <v>0.8495925932968478</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9090952717620803</v>
+        <v>0.9104192304152151</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.9039707483815965</v>
+        <v>0.9014725051774024</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8645452383487625</v>
+        <v>0.87234614217049</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8235480977677252</v>
+        <v>0.8219812548746147</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.8867824922346111</v>
+        <v>0.8904036153508578</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.9006347417608049</v>
+        <v>0.9035233168375959</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.8591947304233956</v>
+        <v>0.8574019948233511</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.8452543553401757</v>
+        <v>0.848637625778778</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9120176448570154</v>
+        <v>0.914815726222871</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.953660733496405</v>
+        <v>0.9534563708631028</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8997323583285463</v>
+        <v>0.9032561105649887</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9317923567402665</v>
+        <v>0.9335665587824545</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9635985253550439</v>
+        <v>0.9640599043098981</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9590464102852999</v>
+        <v>0.959549362066857</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9383850878168565</v>
+        <v>0.9398129196530484</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8918496385980109</v>
+        <v>0.8940124431000932</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9370401652021224</v>
+        <v>0.9384751524918187</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.9503008073423312</v>
+        <v>0.9509490526714538</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.9137107370593518</v>
+        <v>0.9137736844404685</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.9007026329353093</v>
+        <v>0.9000880331756439</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.9385739168882921</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.8987893859727295</v>
+        <v>0.8987893859727296</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.9255609098621114</v>
@@ -1241,7 +1241,7 @@
         <v>0.927716306584884</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.8971046864213119</v>
+        <v>0.897104686421312</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8804698146954999</v>
+        <v>0.8797487139837572</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.910344554450699</v>
+        <v>0.9090654613891606</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8928107583081162</v>
+        <v>0.8904983171430891</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8661708594258917</v>
+        <v>0.867901476092824</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9208525527601105</v>
+        <v>0.920880321415508</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.9460039185220057</v>
+        <v>0.9456333259608901</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9218481908009564</v>
+        <v>0.9208079793804357</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.8811835461371194</v>
+        <v>0.8779430478446073</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.9114757422732273</v>
+        <v>0.9129636946359428</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.9362223593425698</v>
+        <v>0.937644729713787</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.9156237564833581</v>
+        <v>0.915846107774912</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.8812035965012458</v>
+        <v>0.8810240313286459</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9278268039867597</v>
+        <v>0.9269419439024092</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9490563876502506</v>
+        <v>0.949592140563198</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9324512523318048</v>
+        <v>0.9310421632834623</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9178605162390667</v>
+        <v>0.9177478982190281</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9514194172536717</v>
+        <v>0.9524752625553232</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9700121417515931</v>
+        <v>0.9702754502164166</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9522301568357082</v>
+        <v>0.952406354685973</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.914613535190677</v>
+        <v>0.913989103178834</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9382894552028648</v>
+        <v>0.938168914600453</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.9579819243738011</v>
+        <v>0.9581880812185458</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.9390787007966297</v>
+        <v>0.9397533258770207</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.9108826132926011</v>
+        <v>0.9110511662992901</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>117151</v>
+        <v>117380</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>160678</v>
+        <v>160930</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>173749</v>
+        <v>174434</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>113452</v>
+        <v>113981</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>198842</v>
+        <v>199275</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>224030</v>
+        <v>224432</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>220856</v>
+        <v>221249</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>169899</v>
+        <v>169700</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>321595</v>
+        <v>321263</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>389109</v>
+        <v>388687</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>401638</v>
+        <v>401976</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>286036</v>
+        <v>286248</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>126018</v>
+        <v>125969</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>171456</v>
+        <v>171344</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>185318</v>
+        <v>185248</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>120291</v>
+        <v>120300</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>210507</v>
+        <v>210522</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>231994</v>
+        <v>231987</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>236655</v>
+        <v>236979</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>177116</v>
+        <v>176883</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>335019</v>
+        <v>334490</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>402292</v>
+        <v>402189</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>419672</v>
+        <v>419508</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>296058</v>
+        <v>296145</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>165316</v>
+        <v>165268</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>206619</v>
+        <v>208335</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>225145</v>
+        <v>225231</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>163996</v>
+        <v>165748</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>274828</v>
+        <v>274602</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>324444</v>
+        <v>325010</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>323884</v>
+        <v>324335</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>216035</v>
+        <v>217336</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>447069</v>
+        <v>448128</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>539711</v>
+        <v>538128</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>557849</v>
+        <v>556807</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>387070</v>
+        <v>386753</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>181481</v>
+        <v>181190</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>226310</v>
+        <v>226000</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>246170</v>
+        <v>247326</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>186643</v>
+        <v>187238</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>294221</v>
+        <v>293690</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>339960</v>
+        <v>340515</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>339380</v>
+        <v>339845</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>231290</v>
+        <v>230961</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>471873</v>
+        <v>471906</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>563501</v>
+        <v>562972</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>582673</v>
+        <v>581725</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>413890</v>
+        <v>413182</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>116599</v>
+        <v>116262</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>151161</v>
+        <v>152294</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>155026</v>
+        <v>154740</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>113497</v>
+        <v>114848</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>172367</v>
+        <v>173444</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>214498</v>
+        <v>214311</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>223103</v>
+        <v>224182</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>147481</v>
+        <v>147971</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>294254</v>
+        <v>294638</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>370630</v>
+        <v>371651</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>383402</v>
+        <v>383523</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>267550</v>
+        <v>267608</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>132833</v>
+        <v>133276</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>166942</v>
+        <v>166592</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>168743</v>
+        <v>168491</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>133321</v>
+        <v>134032</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>189154</v>
+        <v>188952</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>226557</v>
+        <v>226551</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>239088</v>
+        <v>238907</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>163470</v>
+        <v>163886</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>318268</v>
+        <v>318714</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>390746</v>
+        <v>391002</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>404586</v>
+        <v>403912</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>292996</v>
+        <v>293055</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>159429</v>
+        <v>160610</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>160754</v>
+        <v>160841</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>177049</v>
+        <v>176797</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>185694</v>
+        <v>186264</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>297908</v>
+        <v>298342</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>293811</v>
+        <v>292999</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>262292</v>
+        <v>264658</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>264790</v>
+        <v>264286</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>463808</v>
+        <v>465702</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>459041</v>
+        <v>460513</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>448868</v>
+        <v>447932</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>457082</v>
+        <v>458912</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>178141</v>
+        <v>178687</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>176106</v>
+        <v>176068</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>197079</v>
+        <v>197851</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>204285</v>
+        <v>204674</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>315768</v>
+        <v>315920</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>311712</v>
+        <v>311876</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>284694</v>
+        <v>285127</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>286750</v>
+        <v>287446</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>490094</v>
+        <v>490844</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>484355</v>
+        <v>484685</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>477349</v>
+        <v>477382</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>487067</v>
+        <v>486734</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>577420</v>
+        <v>576947</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>699917</v>
+        <v>698933</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>753365</v>
+        <v>751414</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>598198</v>
+        <v>599394</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>965394</v>
+        <v>965423</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1075154</v>
+        <v>1074733</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1053179</v>
+        <v>1051991</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>816522</v>
+        <v>813520</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1553318</v>
+        <v>1555854</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1783850</v>
+        <v>1786560</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1818683</v>
+        <v>1819125</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1425121</v>
+        <v>1424831</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>608477</v>
+        <v>607897</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>729680</v>
+        <v>730092</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>786814</v>
+        <v>785625</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>633897</v>
+        <v>633819</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>997440</v>
+        <v>998546</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1102440</v>
+        <v>1102739</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1087890</v>
+        <v>1088091</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>847499</v>
+        <v>846921</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1599013</v>
+        <v>1598808</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1825310</v>
+        <v>1825703</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1865271</v>
+        <v>1866611</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1473119</v>
+        <v>1473392</v>
       </c>
     </row>
     <row r="24">
